--- a/MADCAT/BOM/rgbtohdmi_bom.xlsx
+++ b/MADCAT/BOM/rgbtohdmi_bom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -484,13 +484,13 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="67" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C38" si="0">B5*5</f>
+        <f t="shared" ref="C5:C30" si="0">B5*5</f>
         <v>5</v>
       </c>
       <c r="D5" t="s">
@@ -865,7 +865,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -878,7 +878,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/MADCAT/BOM/rgbtohdmi_bom.xlsx
+++ b/MADCAT/BOM/rgbtohdmi_bom.xlsx
@@ -484,7 +484,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
